--- a/data/pca/factorExposure/factorExposure_2011-03-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.007571822929636543</v>
+        <v>-0.01368219212685005</v>
       </c>
       <c r="C2">
-        <v>-0.0001864511598889953</v>
+        <v>0.004894256014958843</v>
       </c>
       <c r="D2">
-        <v>-0.0328128621165977</v>
+        <v>-0.01009007059737885</v>
       </c>
       <c r="E2">
-        <v>-0.001357735204220139</v>
+        <v>0.0198512488172813</v>
       </c>
       <c r="F2">
-        <v>0.008987738183800479</v>
+        <v>-0.0200543147913529</v>
       </c>
       <c r="G2">
-        <v>0.01518217851351281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.004651100052714048</v>
+      </c>
+      <c r="H2">
+        <v>0.01250653883533238</v>
+      </c>
+      <c r="I2">
+        <v>0.008905435207290155</v>
+      </c>
+      <c r="J2">
+        <v>0.05275389662273543</v>
+      </c>
+      <c r="K2">
+        <v>-0.01930185905666651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.1051223338118066</v>
+        <v>-0.1177046607072729</v>
       </c>
       <c r="C4">
-        <v>-0.02353968036662268</v>
+        <v>0.05315533862462746</v>
       </c>
       <c r="D4">
-        <v>-0.04614418595177606</v>
+        <v>0.001731009602636416</v>
       </c>
       <c r="E4">
-        <v>-0.06078643911441028</v>
+        <v>0.009522680895485483</v>
       </c>
       <c r="F4">
-        <v>-0.03287215007373875</v>
+        <v>-0.01838242666138362</v>
       </c>
       <c r="G4">
-        <v>0.02915675682486622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.06912397768315286</v>
+      </c>
+      <c r="H4">
+        <v>0.1365497228842886</v>
+      </c>
+      <c r="I4">
+        <v>-0.04470790650810591</v>
+      </c>
+      <c r="J4">
+        <v>-0.04777018140866191</v>
+      </c>
+      <c r="K4">
+        <v>-0.01874560592643375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1257128301020103</v>
+        <v>-0.1230103120429798</v>
       </c>
       <c r="C6">
-        <v>-0.0310766919234096</v>
+        <v>0.01089403864593779</v>
       </c>
       <c r="D6">
-        <v>-0.02611009721241113</v>
+        <v>-0.005904133893564117</v>
       </c>
       <c r="E6">
-        <v>-0.006011468932894709</v>
+        <v>-0.02485855037783427</v>
       </c>
       <c r="F6">
-        <v>0.1757835705116974</v>
+        <v>-0.01015333557312046</v>
       </c>
       <c r="G6">
-        <v>-0.1338425829349529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.05484999885343525</v>
+      </c>
+      <c r="H6">
+        <v>0.03918788495068018</v>
+      </c>
+      <c r="I6">
+        <v>0.1577959525522385</v>
+      </c>
+      <c r="J6">
+        <v>-0.3536939604205511</v>
+      </c>
+      <c r="K6">
+        <v>0.1547028544232156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.09032819985327784</v>
+        <v>-0.07990455292570635</v>
       </c>
       <c r="C7">
-        <v>-0.03793666694254063</v>
+        <v>0.05896469037723715</v>
       </c>
       <c r="D7">
-        <v>-0.03774423065026174</v>
+        <v>-0.02600171935154074</v>
       </c>
       <c r="E7">
-        <v>-0.02824010697827547</v>
+        <v>0.02207868187384959</v>
       </c>
       <c r="F7">
-        <v>0.01822533752636526</v>
+        <v>-0.0344192299749032</v>
       </c>
       <c r="G7">
-        <v>0.02114086378809972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01806446059573163</v>
+      </c>
+      <c r="H7">
+        <v>0.04133952312615356</v>
+      </c>
+      <c r="I7">
+        <v>-0.02792010858811549</v>
+      </c>
+      <c r="J7">
+        <v>0.02172679352190487</v>
+      </c>
+      <c r="K7">
+        <v>-0.0415806853127461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04277064615515175</v>
+        <v>-0.0522363860077843</v>
       </c>
       <c r="C8">
-        <v>0.03018349162492538</v>
+        <v>0.01647151632357914</v>
       </c>
       <c r="D8">
-        <v>-0.08071378168523412</v>
+        <v>-0.01512617642146988</v>
       </c>
       <c r="E8">
-        <v>-0.09834051819360255</v>
+        <v>0.00909337628216998</v>
       </c>
       <c r="F8">
-        <v>-0.01343725795687146</v>
+        <v>-0.008468164042695783</v>
       </c>
       <c r="G8">
-        <v>0.1369522371130457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.09767332550427774</v>
+      </c>
+      <c r="H8">
+        <v>0.1156112655345627</v>
+      </c>
+      <c r="I8">
+        <v>-0.008165475972242146</v>
+      </c>
+      <c r="J8">
+        <v>-0.03243097723053332</v>
+      </c>
+      <c r="K8">
+        <v>0.003824352661504169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.09388360836515751</v>
+        <v>-0.08939279306093938</v>
       </c>
       <c r="C9">
-        <v>-0.0387072041621597</v>
+        <v>0.05144888056911347</v>
       </c>
       <c r="D9">
-        <v>-0.03393419566906524</v>
+        <v>-0.008352340593235589</v>
       </c>
       <c r="E9">
-        <v>-0.04977045376214877</v>
+        <v>0.01820812518042452</v>
       </c>
       <c r="F9">
-        <v>-0.01811796294971976</v>
+        <v>-0.01086272317758634</v>
       </c>
       <c r="G9">
-        <v>0.07545398706093069</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.06134770897643698</v>
+      </c>
+      <c r="H9">
+        <v>0.1141271821235115</v>
+      </c>
+      <c r="I9">
+        <v>-0.01458373559901108</v>
+      </c>
+      <c r="J9">
+        <v>-0.00823850218054502</v>
+      </c>
+      <c r="K9">
+        <v>0.005655778379169108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.03698188850334391</v>
+        <v>-0.08670951936264699</v>
       </c>
       <c r="C10">
-        <v>0.1560823901484278</v>
+        <v>-0.1787018886744977</v>
       </c>
       <c r="D10">
-        <v>-0.08435306087888945</v>
+        <v>0.02781702827518628</v>
       </c>
       <c r="E10">
-        <v>-0.02918364919548901</v>
+        <v>0.04121855619051073</v>
       </c>
       <c r="F10">
-        <v>0.01941307491371725</v>
+        <v>-0.04968914257880747</v>
       </c>
       <c r="G10">
-        <v>0.008384224892785397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.002346936025967736</v>
+      </c>
+      <c r="H10">
+        <v>-0.005014451343665492</v>
+      </c>
+      <c r="I10">
+        <v>-0.01356672853496797</v>
+      </c>
+      <c r="J10">
+        <v>-0.02835875104340648</v>
+      </c>
+      <c r="K10">
+        <v>0.008797566420484947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07689579514910781</v>
+        <v>-0.07991870760823994</v>
       </c>
       <c r="C11">
-        <v>-0.06163139142952759</v>
+        <v>0.06166545782678027</v>
       </c>
       <c r="D11">
-        <v>-0.009932147251189989</v>
+        <v>-0.01778766470209216</v>
       </c>
       <c r="E11">
-        <v>0.005388798008817796</v>
+        <v>0.01717459888281472</v>
       </c>
       <c r="F11">
-        <v>-0.0001123994992124238</v>
+        <v>0.02180924067975027</v>
       </c>
       <c r="G11">
-        <v>0.1616142984057619</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.07107639616390798</v>
+      </c>
+      <c r="H11">
+        <v>0.1129819914662922</v>
+      </c>
+      <c r="I11">
+        <v>0.00414589502570635</v>
+      </c>
+      <c r="J11">
+        <v>0.1123048766508542</v>
+      </c>
+      <c r="K11">
+        <v>0.006046644816765947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07293345949364259</v>
+        <v>-0.08089353078537991</v>
       </c>
       <c r="C12">
-        <v>-0.04098422621472362</v>
+        <v>0.0708631466654573</v>
       </c>
       <c r="D12">
-        <v>-0.002176850548557794</v>
+        <v>-0.02856613661063921</v>
       </c>
       <c r="E12">
-        <v>-0.03325240454350308</v>
+        <v>0.04023668532662791</v>
       </c>
       <c r="F12">
-        <v>0.01456781333500939</v>
+        <v>0.03216565700645112</v>
       </c>
       <c r="G12">
-        <v>0.1483786874672771</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0908175585851858</v>
+      </c>
+      <c r="H12">
+        <v>0.09777278484986179</v>
+      </c>
+      <c r="I12">
+        <v>0.01833669663465755</v>
+      </c>
+      <c r="J12">
+        <v>0.09593012383289094</v>
+      </c>
+      <c r="K12">
+        <v>-0.0115366872482507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.06466659682198608</v>
+        <v>-0.04198601252098411</v>
       </c>
       <c r="C13">
-        <v>0.0002144024182339161</v>
+        <v>0.02783582933971476</v>
       </c>
       <c r="D13">
-        <v>-0.008600356024194225</v>
+        <v>-0.01664932480403162</v>
       </c>
       <c r="E13">
-        <v>-0.01952033992587661</v>
+        <v>-0.00621491127617095</v>
       </c>
       <c r="F13">
-        <v>-0.04386090125857564</v>
+        <v>-0.02021853399802018</v>
       </c>
       <c r="G13">
-        <v>0.05968049142767332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05277587706689926</v>
+      </c>
+      <c r="H13">
+        <v>0.04776585713516582</v>
+      </c>
+      <c r="I13">
+        <v>0.004518186658337265</v>
+      </c>
+      <c r="J13">
+        <v>-0.06728393211506768</v>
+      </c>
+      <c r="K13">
+        <v>-0.0198245258989573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.05389462762173813</v>
+        <v>-0.04148227005505232</v>
       </c>
       <c r="C14">
-        <v>-0.003939787698516127</v>
+        <v>0.01090712038414242</v>
       </c>
       <c r="D14">
-        <v>-0.03539042974750826</v>
+        <v>0.01271485222937983</v>
       </c>
       <c r="E14">
-        <v>-0.03119951562679191</v>
+        <v>0.0100679336457444</v>
       </c>
       <c r="F14">
-        <v>-0.01713497598446259</v>
+        <v>0.008612208493712328</v>
       </c>
       <c r="G14">
-        <v>0.06294639020022019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04421986628112626</v>
+      </c>
+      <c r="H14">
+        <v>0.04684704422866586</v>
+      </c>
+      <c r="I14">
+        <v>-0.07871216356348332</v>
+      </c>
+      <c r="J14">
+        <v>-0.04443904853609699</v>
+      </c>
+      <c r="K14">
+        <v>0.02130473506628548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.03822431836624059</v>
+        <v>-0.02382628054838978</v>
       </c>
       <c r="C15">
-        <v>0.01179785338489353</v>
+        <v>0.004131203661376977</v>
       </c>
       <c r="D15">
-        <v>-0.01379385598853846</v>
+        <v>-0.007335356503251245</v>
       </c>
       <c r="E15">
-        <v>-0.006569722312716769</v>
+        <v>-0.01460927882509987</v>
       </c>
       <c r="F15">
-        <v>-0.008163912240207575</v>
+        <v>-0.03451444935519613</v>
       </c>
       <c r="G15">
-        <v>0.02524887187589598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.01102946031589582</v>
+      </c>
+      <c r="H15">
+        <v>0.006920304782225971</v>
+      </c>
+      <c r="I15">
+        <v>-0.01897641356014587</v>
+      </c>
+      <c r="J15">
+        <v>-0.05552962724238946</v>
+      </c>
+      <c r="K15">
+        <v>0.00449128630968341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.07998368727562626</v>
+        <v>-0.08542103932419412</v>
       </c>
       <c r="C16">
-        <v>-0.07091893501857623</v>
+        <v>0.06954123147226868</v>
       </c>
       <c r="D16">
-        <v>-0.01689746177272117</v>
+        <v>-0.02393547963690848</v>
       </c>
       <c r="E16">
-        <v>-0.03215804730214108</v>
+        <v>0.02194777744456284</v>
       </c>
       <c r="F16">
-        <v>-0.04132616179004436</v>
+        <v>0.02048910072817648</v>
       </c>
       <c r="G16">
-        <v>0.121674674117393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.09806879257201401</v>
+      </c>
+      <c r="H16">
+        <v>0.09621347643400566</v>
+      </c>
+      <c r="I16">
+        <v>0.0003938267548309948</v>
+      </c>
+      <c r="J16">
+        <v>0.1290124752394873</v>
+      </c>
+      <c r="K16">
+        <v>0.01355761624092951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.05154237889916495</v>
+        <v>-0.04954515888484343</v>
       </c>
       <c r="C20">
-        <v>-0.02433772945705914</v>
+        <v>0.03290315817292845</v>
       </c>
       <c r="D20">
-        <v>-0.01630428497536604</v>
+        <v>0.01328421125026841</v>
       </c>
       <c r="E20">
-        <v>-0.02254246575300785</v>
+        <v>0.0001597432259042469</v>
       </c>
       <c r="F20">
-        <v>-0.003252621030358992</v>
+        <v>-0.01767118346750262</v>
       </c>
       <c r="G20">
-        <v>0.1093746660860305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.03728292586789329</v>
+      </c>
+      <c r="H20">
+        <v>0.0537309246873809</v>
+      </c>
+      <c r="I20">
+        <v>-0.02377976149484982</v>
+      </c>
+      <c r="J20">
+        <v>-0.03459312552526621</v>
+      </c>
+      <c r="K20">
+        <v>0.008465253885796085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.02664643215611059</v>
+        <v>-0.02966994818347841</v>
       </c>
       <c r="C21">
-        <v>-0.03908273324434957</v>
+        <v>0.01327600131234788</v>
       </c>
       <c r="D21">
-        <v>0.005316326899084982</v>
+        <v>0.03077831189516674</v>
       </c>
       <c r="E21">
-        <v>-0.02010517182650401</v>
+        <v>-0.01628526813872951</v>
       </c>
       <c r="F21">
-        <v>0.07398023274762219</v>
+        <v>0.009644871681389573</v>
       </c>
       <c r="G21">
-        <v>-0.08076245609103007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04160643585289697</v>
+      </c>
+      <c r="H21">
+        <v>0.06810527785475286</v>
+      </c>
+      <c r="I21">
+        <v>-0.008494006901185461</v>
+      </c>
+      <c r="J21">
+        <v>-0.0687692755959379</v>
+      </c>
+      <c r="K21">
+        <v>-0.08122994120805423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04240524652904926</v>
+        <v>-0.0359265007759196</v>
       </c>
       <c r="C22">
-        <v>-0.01022406947431138</v>
+        <v>0.0003454500176273006</v>
       </c>
       <c r="D22">
-        <v>0.009853371837786517</v>
+        <v>-0.08524575656343497</v>
       </c>
       <c r="E22">
-        <v>-0.5423388916258441</v>
+        <v>-0.319410429752966</v>
       </c>
       <c r="F22">
-        <v>-0.1532415025874354</v>
+        <v>-0.55891194357026</v>
       </c>
       <c r="G22">
-        <v>-0.3314531841572328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1290562299358048</v>
+      </c>
+      <c r="H22">
+        <v>-0.1370468660807827</v>
+      </c>
+      <c r="I22">
+        <v>0.03947383718036178</v>
+      </c>
+      <c r="J22">
+        <v>0.08348700304114824</v>
+      </c>
+      <c r="K22">
+        <v>0.0008489756421858583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04251639193857391</v>
+        <v>-0.03613159243848194</v>
       </c>
       <c r="C23">
-        <v>-0.01075047340473762</v>
+        <v>0.0008031892260695866</v>
       </c>
       <c r="D23">
-        <v>0.008218059624011415</v>
+        <v>-0.08636355945129802</v>
       </c>
       <c r="E23">
-        <v>-0.5414616035750042</v>
+        <v>-0.3206832940196725</v>
       </c>
       <c r="F23">
-        <v>-0.1537806000709131</v>
+        <v>-0.5607094570991075</v>
       </c>
       <c r="G23">
-        <v>-0.3320816972155992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1302480851676135</v>
+      </c>
+      <c r="H23">
+        <v>-0.1334633295963911</v>
+      </c>
+      <c r="I23">
+        <v>0.03825419468105117</v>
+      </c>
+      <c r="J23">
+        <v>0.08206062352048353</v>
+      </c>
+      <c r="K23">
+        <v>0.004625127229813447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08407269536866938</v>
+        <v>-0.08773131237979191</v>
       </c>
       <c r="C24">
-        <v>-0.05029948465216197</v>
+        <v>0.0629982313878623</v>
       </c>
       <c r="D24">
-        <v>-0.0217899855285783</v>
+        <v>-0.009823158706751888</v>
       </c>
       <c r="E24">
-        <v>-0.03502680855698222</v>
+        <v>0.0222633357450775</v>
       </c>
       <c r="F24">
-        <v>0.004324604496518925</v>
+        <v>0.01305768147489505</v>
       </c>
       <c r="G24">
-        <v>0.1242843250180544</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.08386524217547645</v>
+      </c>
+      <c r="H24">
+        <v>0.09615871095098499</v>
+      </c>
+      <c r="I24">
+        <v>0.01875281521956718</v>
+      </c>
+      <c r="J24">
+        <v>0.1334536470261329</v>
+      </c>
+      <c r="K24">
+        <v>0.03554705584617342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.07601420132957434</v>
+        <v>-0.0892822949144316</v>
       </c>
       <c r="C25">
-        <v>-0.02096453313734135</v>
+        <v>0.04373067227599702</v>
       </c>
       <c r="D25">
-        <v>-0.02300668293070988</v>
+        <v>-0.02009243792594671</v>
       </c>
       <c r="E25">
-        <v>-0.02861573682106</v>
+        <v>0.04624930981832524</v>
       </c>
       <c r="F25">
-        <v>0.01499414794816272</v>
+        <v>0.03148526970296324</v>
       </c>
       <c r="G25">
-        <v>0.1166203269906263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.09397234858074087</v>
+      </c>
+      <c r="H25">
+        <v>0.08227059850111643</v>
+      </c>
+      <c r="I25">
+        <v>-0.01307109578492271</v>
+      </c>
+      <c r="J25">
+        <v>0.09835391749455651</v>
+      </c>
+      <c r="K25">
+        <v>0.0001098764281720483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05100263159344195</v>
+        <v>-0.04168492049025793</v>
       </c>
       <c r="C26">
-        <v>-0.02684533100892005</v>
+        <v>-0.004506848891825835</v>
       </c>
       <c r="D26">
-        <v>-0.03071382304705378</v>
+        <v>0.02092782018891835</v>
       </c>
       <c r="E26">
-        <v>-0.01380057757876166</v>
+        <v>-0.01960325845355435</v>
       </c>
       <c r="F26">
-        <v>-0.01549026724893854</v>
+        <v>-0.002213282403505922</v>
       </c>
       <c r="G26">
-        <v>0.06600231725913853</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.04227727299024245</v>
+      </c>
+      <c r="H26">
+        <v>0.02774708577038414</v>
+      </c>
+      <c r="I26">
+        <v>-0.05141825650514642</v>
+      </c>
+      <c r="J26">
+        <v>-0.03770466755609798</v>
+      </c>
+      <c r="K26">
+        <v>0.02376207202064155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.06147125924616292</v>
+        <v>-0.09964751021692081</v>
       </c>
       <c r="C28">
-        <v>0.2981138668903447</v>
+        <v>-0.3143865780671885</v>
       </c>
       <c r="D28">
-        <v>-0.05573640587480452</v>
+        <v>-0.01494053118210678</v>
       </c>
       <c r="E28">
-        <v>0.02445063520078461</v>
+        <v>0.02559888182963302</v>
       </c>
       <c r="F28">
-        <v>0.05651613943956254</v>
+        <v>0.004940155284893302</v>
       </c>
       <c r="G28">
-        <v>-0.02784991831923674</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02492155109345006</v>
+      </c>
+      <c r="H28">
+        <v>0.01801040452301914</v>
+      </c>
+      <c r="I28">
+        <v>0.02629096453251616</v>
+      </c>
+      <c r="J28">
+        <v>0.003950687118735433</v>
+      </c>
+      <c r="K28">
+        <v>-0.007746207767210656</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05891004785101455</v>
+        <v>-0.03860915490631611</v>
       </c>
       <c r="C29">
-        <v>-0.004147655003163843</v>
+        <v>0.009714097628284611</v>
       </c>
       <c r="D29">
-        <v>-0.03000972947310184</v>
+        <v>0.0002257975290047113</v>
       </c>
       <c r="E29">
-        <v>-0.04467947574514233</v>
+        <v>0.02703722530097285</v>
       </c>
       <c r="F29">
-        <v>-0.03193746705017498</v>
+        <v>-0.002759411041880912</v>
       </c>
       <c r="G29">
-        <v>0.04289591735351072</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.08445779688872143</v>
+      </c>
+      <c r="H29">
+        <v>0.03826090484648932</v>
+      </c>
+      <c r="I29">
+        <v>-0.06380720108187683</v>
+      </c>
+      <c r="J29">
+        <v>-0.03906448856721327</v>
+      </c>
+      <c r="K29">
+        <v>0.03159346772581888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1123529838145726</v>
+        <v>-0.1074000471585645</v>
       </c>
       <c r="C30">
-        <v>0.02055956982173548</v>
+        <v>0.07178709940349279</v>
       </c>
       <c r="D30">
-        <v>-0.07446978128981312</v>
+        <v>-0.04538045620597128</v>
       </c>
       <c r="E30">
-        <v>-0.2180458359469903</v>
+        <v>-0.001379317939456055</v>
       </c>
       <c r="F30">
-        <v>0.08093046866751261</v>
+        <v>0.01454632561474462</v>
       </c>
       <c r="G30">
-        <v>0.1259444050234705</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.1871671640018872</v>
+      </c>
+      <c r="H30">
+        <v>0.1333777251715844</v>
+      </c>
+      <c r="I30">
+        <v>0.2738486379451729</v>
+      </c>
+      <c r="J30">
+        <v>-0.007507010465017424</v>
+      </c>
+      <c r="K30">
+        <v>-0.03008386722748817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05844116357509681</v>
+        <v>-0.03794567405342553</v>
       </c>
       <c r="C31">
-        <v>-0.0158048545647227</v>
+        <v>0.02622762500511822</v>
       </c>
       <c r="D31">
-        <v>0.01040976379019362</v>
+        <v>-0.0003976883002933952</v>
       </c>
       <c r="E31">
-        <v>-0.002387028738672732</v>
+        <v>-0.005113695577765061</v>
       </c>
       <c r="F31">
-        <v>-0.03775019159644925</v>
+        <v>-0.001678485721221422</v>
       </c>
       <c r="G31">
-        <v>0.008114610578102623</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01287168183184184</v>
+      </c>
+      <c r="H31">
+        <v>0.01971004710141936</v>
+      </c>
+      <c r="I31">
+        <v>-0.05664566856930195</v>
+      </c>
+      <c r="J31">
+        <v>-0.003632855364715316</v>
+      </c>
+      <c r="K31">
+        <v>0.052447767960311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04056729484468142</v>
+        <v>-0.05487756392652957</v>
       </c>
       <c r="C32">
-        <v>0.02275366582144893</v>
+        <v>-0.000389276111409067</v>
       </c>
       <c r="D32">
-        <v>-0.0013559848455812</v>
+        <v>0.01698395563775975</v>
       </c>
       <c r="E32">
-        <v>-0.08322858118612901</v>
+        <v>-0.01107461847063546</v>
       </c>
       <c r="F32">
-        <v>-0.1369075053263279</v>
+        <v>0.05559678274448503</v>
       </c>
       <c r="G32">
-        <v>0.05194649007416852</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02201868768693247</v>
+      </c>
+      <c r="H32">
+        <v>0.03796997342046774</v>
+      </c>
+      <c r="I32">
+        <v>0.01188240715627336</v>
+      </c>
+      <c r="J32">
+        <v>-0.009775575953066495</v>
+      </c>
+      <c r="K32">
+        <v>0.01292855874952081</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1110359788730962</v>
+        <v>-0.1026888178870825</v>
       </c>
       <c r="C33">
-        <v>-0.01466295060679325</v>
+        <v>0.05287569966040095</v>
       </c>
       <c r="D33">
-        <v>0.008408272853103266</v>
+        <v>-0.0687993133023232</v>
       </c>
       <c r="E33">
-        <v>-0.01108394328893627</v>
+        <v>0.02241678014387226</v>
       </c>
       <c r="F33">
-        <v>-0.02776787627099151</v>
+        <v>0.01812294550808414</v>
       </c>
       <c r="G33">
-        <v>0.06729525059582257</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03365670992252721</v>
+      </c>
+      <c r="H33">
+        <v>0.04792981440951605</v>
+      </c>
+      <c r="I33">
+        <v>-0.01955973945136043</v>
+      </c>
+      <c r="J33">
+        <v>0.0271856785916685</v>
+      </c>
+      <c r="K33">
+        <v>0.008265601393214887</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06691497529350786</v>
+        <v>-0.07325103267910109</v>
       </c>
       <c r="C34">
-        <v>-0.04473390547655182</v>
+        <v>0.05465502043609927</v>
       </c>
       <c r="D34">
-        <v>-0.01090332655593842</v>
+        <v>-0.0157317069345545</v>
       </c>
       <c r="E34">
-        <v>-0.007559242836217682</v>
+        <v>0.02289966913024965</v>
       </c>
       <c r="F34">
-        <v>-0.02177340175424419</v>
+        <v>0.01958425921676719</v>
       </c>
       <c r="G34">
-        <v>0.09574599621541197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.08662251418761789</v>
+      </c>
+      <c r="H34">
+        <v>0.09078966071387667</v>
+      </c>
+      <c r="I34">
+        <v>-0.01065730427415574</v>
+      </c>
+      <c r="J34">
+        <v>0.09905025112126603</v>
+      </c>
+      <c r="K34">
+        <v>-0.001955406472142328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04517617352608869</v>
+        <v>-0.02014432465157764</v>
       </c>
       <c r="C35">
-        <v>-0.007949343462635271</v>
+        <v>0.01143789051055252</v>
       </c>
       <c r="D35">
-        <v>0.01939031009346213</v>
+        <v>-0.004630749136770891</v>
       </c>
       <c r="E35">
-        <v>-0.01431809417264896</v>
+        <v>0.003078428309720608</v>
       </c>
       <c r="F35">
-        <v>0.04195011765786412</v>
+        <v>0.002512631971184346</v>
       </c>
       <c r="G35">
-        <v>0.04904822258771005</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.05575672030960663</v>
+      </c>
+      <c r="H35">
+        <v>0.02263376216632348</v>
+      </c>
+      <c r="I35">
+        <v>-0.03804445598650941</v>
+      </c>
+      <c r="J35">
+        <v>-0.01731092359255177</v>
+      </c>
+      <c r="K35">
+        <v>-0.03485662291837491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.0383861694704138</v>
+        <v>-0.03048297635077577</v>
       </c>
       <c r="C36">
-        <v>-0.00196703777534237</v>
+        <v>0.004626181653790891</v>
       </c>
       <c r="D36">
-        <v>-0.02049546286706556</v>
+        <v>-0.002736134989695524</v>
       </c>
       <c r="E36">
-        <v>-0.03657547852101445</v>
+        <v>-0.01022721330643339</v>
       </c>
       <c r="F36">
-        <v>-0.001611720671873455</v>
+        <v>-0.003486212108000137</v>
       </c>
       <c r="G36">
-        <v>0.05447879594221226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.04421713467350302</v>
+      </c>
+      <c r="H36">
+        <v>0.04833824901594148</v>
+      </c>
+      <c r="I36">
+        <v>-0.02780377800569985</v>
+      </c>
+      <c r="J36">
+        <v>-0.02552473835210625</v>
+      </c>
+      <c r="K36">
+        <v>0.02128992749126168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.05588719339557056</v>
+        <v>-0.0214317343031713</v>
       </c>
       <c r="C38">
-        <v>-0.01682241412185369</v>
+        <v>0.01801598985177034</v>
       </c>
       <c r="D38">
-        <v>-0.007383675119992628</v>
+        <v>-0.01147954872308601</v>
       </c>
       <c r="E38">
-        <v>-0.003966025955915672</v>
+        <v>0.0002537685380197201</v>
       </c>
       <c r="F38">
-        <v>-0.01538960802644431</v>
+        <v>-0.02320482330113998</v>
       </c>
       <c r="G38">
-        <v>0.05364931081211328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01496780038054217</v>
+      </c>
+      <c r="H38">
+        <v>-0.04369843477649614</v>
+      </c>
+      <c r="I38">
+        <v>-0.0002916301891949077</v>
+      </c>
+      <c r="J38">
+        <v>-0.01850806791548848</v>
+      </c>
+      <c r="K38">
+        <v>0.04752950014377473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.1089169075359949</v>
+        <v>-0.1228028415599736</v>
       </c>
       <c r="C39">
-        <v>-0.03888534273206641</v>
+        <v>0.08763584900371638</v>
       </c>
       <c r="D39">
-        <v>-0.006887600888803594</v>
+        <v>-0.04762814634719206</v>
       </c>
       <c r="E39">
-        <v>-0.07331874354132366</v>
+        <v>0.06986481726399553</v>
       </c>
       <c r="F39">
-        <v>-0.004560273167024982</v>
+        <v>0.08166889784280247</v>
       </c>
       <c r="G39">
-        <v>0.1442798349097183</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1300294556668063</v>
+      </c>
+      <c r="H39">
+        <v>0.07637570314235399</v>
+      </c>
+      <c r="I39">
+        <v>0.01153541196798383</v>
+      </c>
+      <c r="J39">
+        <v>0.1651614758229149</v>
+      </c>
+      <c r="K39">
+        <v>-0.06456683522039083</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.05134084671390161</v>
+        <v>-0.02075242459657194</v>
       </c>
       <c r="C40">
-        <v>-0.02250925049571405</v>
+        <v>0.03282649342722931</v>
       </c>
       <c r="D40">
-        <v>0.02182149711797467</v>
+        <v>0.003404902539053243</v>
       </c>
       <c r="E40">
-        <v>-0.1083922971282926</v>
+        <v>-0.03687712927384939</v>
       </c>
       <c r="F40">
-        <v>0.04576955521250402</v>
+        <v>-0.05698166763828073</v>
       </c>
       <c r="G40">
-        <v>0.2340408765790277</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.06905449641898831</v>
+      </c>
+      <c r="H40">
+        <v>0.09906341446700456</v>
+      </c>
+      <c r="I40">
+        <v>0.04719083514466876</v>
+      </c>
+      <c r="J40">
+        <v>-0.05777359454268893</v>
+      </c>
+      <c r="K40">
+        <v>0.01910410602680019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.04828884681216842</v>
+        <v>-0.03086704162219879</v>
       </c>
       <c r="C41">
-        <v>-0.02863455597192858</v>
+        <v>0.01392985723846894</v>
       </c>
       <c r="D41">
-        <v>-0.000637698577448789</v>
+        <v>0.01019654476844979</v>
       </c>
       <c r="E41">
-        <v>0.01287503934826649</v>
+        <v>0.01163957200658935</v>
       </c>
       <c r="F41">
-        <v>-0.02446625700513284</v>
+        <v>0.003337606471928518</v>
       </c>
       <c r="G41">
-        <v>0.06737979356846285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01216588978011626</v>
+      </c>
+      <c r="H41">
+        <v>0.01384395155623769</v>
+      </c>
+      <c r="I41">
+        <v>-0.03171377771929427</v>
+      </c>
+      <c r="J41">
+        <v>-0.008542040214966878</v>
+      </c>
+      <c r="K41">
+        <v>0.03678627870116161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.07313053097335311</v>
+        <v>-0.0471958647380708</v>
       </c>
       <c r="C43">
-        <v>-0.02942928637588128</v>
+        <v>0.01580384874313798</v>
       </c>
       <c r="D43">
-        <v>-0.01926800780034785</v>
+        <v>-0.01332828164979816</v>
       </c>
       <c r="E43">
-        <v>-0.02124426584054741</v>
+        <v>0.003266208183286205</v>
       </c>
       <c r="F43">
-        <v>-0.02375138092655138</v>
+        <v>-0.009066608923106251</v>
       </c>
       <c r="G43">
-        <v>0.007741015709317228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02834025286309738</v>
+      </c>
+      <c r="H43">
+        <v>-0.0008709613602894557</v>
+      </c>
+      <c r="I43">
+        <v>-0.03732217059957891</v>
+      </c>
+      <c r="J43">
+        <v>0.00105642085652784</v>
+      </c>
+      <c r="K43">
+        <v>0.0438195064688944</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.0749274582710814</v>
+        <v>-0.1165129832261543</v>
       </c>
       <c r="C44">
-        <v>-0.01693786566719709</v>
+        <v>0.1006095197881598</v>
       </c>
       <c r="D44">
-        <v>-0.09365632306041469</v>
+        <v>-0.04272563935437067</v>
       </c>
       <c r="E44">
-        <v>-0.05506284417326086</v>
+        <v>0.02689319931524379</v>
       </c>
       <c r="F44">
-        <v>-0.04581467801396243</v>
+        <v>-0.1154599559253302</v>
       </c>
       <c r="G44">
-        <v>0.1034280687062327</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.2270661239289236</v>
+      </c>
+      <c r="H44">
+        <v>0.1302930252809127</v>
+      </c>
+      <c r="I44">
+        <v>0.1241667642935354</v>
+      </c>
+      <c r="J44">
+        <v>-0.01276478212516798</v>
+      </c>
+      <c r="K44">
+        <v>-0.04889846594151685</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.04983627047073488</v>
+        <v>-0.02751591133559146</v>
       </c>
       <c r="C46">
-        <v>-0.03850160478387937</v>
+        <v>0.009057655287695355</v>
       </c>
       <c r="D46">
-        <v>-0.02871219882487476</v>
+        <v>-0.01038139338523436</v>
       </c>
       <c r="E46">
-        <v>-0.0489036823947403</v>
+        <v>-0.0003978919894450534</v>
       </c>
       <c r="F46">
-        <v>-0.02135319711958942</v>
+        <v>-0.04276018422698843</v>
       </c>
       <c r="G46">
-        <v>0.02925903036919772</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05093275972090897</v>
+      </c>
+      <c r="H46">
+        <v>0.02391997118518844</v>
+      </c>
+      <c r="I46">
+        <v>-0.05782523935507591</v>
+      </c>
+      <c r="J46">
+        <v>-0.03192992331069033</v>
+      </c>
+      <c r="K46">
+        <v>0.006448589916570283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.04888952858690132</v>
+        <v>-0.04149137959248179</v>
       </c>
       <c r="C47">
-        <v>-0.0003378721420663108</v>
+        <v>0.009983782364151981</v>
       </c>
       <c r="D47">
-        <v>-0.004237168803255791</v>
+        <v>0.0001796580490588484</v>
       </c>
       <c r="E47">
-        <v>-0.06154767620752257</v>
+        <v>-0.01027898381003373</v>
       </c>
       <c r="F47">
-        <v>-0.006072638875415812</v>
+        <v>-0.008917667231528283</v>
       </c>
       <c r="G47">
-        <v>-0.007713363768469632</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04368990729101866</v>
+      </c>
+      <c r="H47">
+        <v>0.02041074168161998</v>
+      </c>
+      <c r="I47">
+        <v>-0.04684939063024077</v>
+      </c>
+      <c r="J47">
+        <v>-0.04301152274056712</v>
+      </c>
+      <c r="K47">
+        <v>0.01398013153417105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.04432334215390003</v>
+        <v>-0.03786056146373921</v>
       </c>
       <c r="C48">
-        <v>0.0007184756188285187</v>
+        <v>-0.001876818505791196</v>
       </c>
       <c r="D48">
-        <v>0.006979238408492356</v>
+        <v>-0.007489173719650766</v>
       </c>
       <c r="E48">
-        <v>-0.03855881467721829</v>
+        <v>-0.003179045659102972</v>
       </c>
       <c r="F48">
-        <v>-0.003289262982550127</v>
+        <v>0.0005279836077221325</v>
       </c>
       <c r="G48">
-        <v>0.04141028691867984</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.04793715723609587</v>
+      </c>
+      <c r="H48">
+        <v>0.03787629045330308</v>
+      </c>
+      <c r="I48">
+        <v>-0.0391421767099254</v>
+      </c>
+      <c r="J48">
+        <v>-0.04153956811481358</v>
+      </c>
+      <c r="K48">
+        <v>-0.02342239671028374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.2351133474523413</v>
+        <v>-0.2307615253103205</v>
       </c>
       <c r="C49">
-        <v>-0.07985514302935619</v>
+        <v>0.0432996679406096</v>
       </c>
       <c r="D49">
-        <v>-0.03186763535460881</v>
+        <v>0.05599433111683651</v>
       </c>
       <c r="E49">
-        <v>0.09828603308045521</v>
+        <v>0.06133612813178028</v>
       </c>
       <c r="F49">
-        <v>0.1136004459722246</v>
+        <v>-0.00580593915155747</v>
       </c>
       <c r="G49">
-        <v>-0.1201494321555857</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.2110913457260677</v>
+      </c>
+      <c r="H49">
+        <v>-0.1471821063093633</v>
+      </c>
+      <c r="I49">
+        <v>0.2282278950686022</v>
+      </c>
+      <c r="J49">
+        <v>0.213425189970873</v>
+      </c>
+      <c r="K49">
+        <v>0.04812590160934396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.05494561763547031</v>
+        <v>-0.04315293345421174</v>
       </c>
       <c r="C50">
-        <v>-0.01294334305592323</v>
+        <v>0.02029730195448976</v>
       </c>
       <c r="D50">
-        <v>0.003289904956350354</v>
+        <v>0.007805611489185227</v>
       </c>
       <c r="E50">
-        <v>-0.0194783291006679</v>
+        <v>-0.004353281453972775</v>
       </c>
       <c r="F50">
-        <v>-0.05017985548869387</v>
+        <v>0.0002680763576595287</v>
       </c>
       <c r="G50">
-        <v>0.005652358217190494</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.03980678899351935</v>
+      </c>
+      <c r="H50">
+        <v>0.02986385928060511</v>
+      </c>
+      <c r="I50">
+        <v>-0.02869287080247598</v>
+      </c>
+      <c r="J50">
+        <v>-0.01011769979901051</v>
+      </c>
+      <c r="K50">
+        <v>0.04466783755311492</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03819571841746222</v>
+        <v>-0.01946133115879656</v>
       </c>
       <c r="C51">
-        <v>-0.01036190599709867</v>
+        <v>-0.003872727923303644</v>
       </c>
       <c r="D51">
-        <v>-0.01639237501570656</v>
+        <v>-0.01368451829483846</v>
       </c>
       <c r="E51">
-        <v>0.0127070501764137</v>
+        <v>0.01351577268353823</v>
       </c>
       <c r="F51">
-        <v>-0.01562644324752647</v>
+        <v>-0.01497914857999559</v>
       </c>
       <c r="G51">
-        <v>-0.0119702559396676</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0281386463553517</v>
+      </c>
+      <c r="H51">
+        <v>-0.004830238483578627</v>
+      </c>
+      <c r="I51">
+        <v>0.01416312502527319</v>
+      </c>
+      <c r="J51">
+        <v>0.02650282889593784</v>
+      </c>
+      <c r="K51">
+        <v>0.00827705092056414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.07552249237587197</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.04036626743802669</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.0009594651744268914</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.01453286112830177</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01559880680908462</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.05853132991097643</v>
+      </c>
+      <c r="H52">
+        <v>-0.04298337734790587</v>
+      </c>
+      <c r="I52">
+        <v>-0.1114443896218922</v>
+      </c>
+      <c r="J52">
+        <v>0.009570583395468648</v>
+      </c>
+      <c r="K52">
+        <v>-0.03429325151078683</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1627534276790343</v>
+        <v>-0.1635166965423315</v>
       </c>
       <c r="C53">
-        <v>0.003823482362727401</v>
+        <v>0.02611919173531507</v>
       </c>
       <c r="D53">
-        <v>-0.01249566735342967</v>
+        <v>-0.007630196454556619</v>
       </c>
       <c r="E53">
-        <v>0.07283395056599504</v>
+        <v>0.02094920843739978</v>
       </c>
       <c r="F53">
-        <v>-0.2357763855455475</v>
+        <v>-0.0114734235061814</v>
       </c>
       <c r="G53">
-        <v>-0.03531881444358765</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.008768898542051099</v>
+      </c>
+      <c r="H53">
+        <v>-0.1135091161582188</v>
+      </c>
+      <c r="I53">
+        <v>-0.2171749775702435</v>
+      </c>
+      <c r="J53">
+        <v>-0.002586119194919169</v>
+      </c>
+      <c r="K53">
+        <v>0.1231979926554207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.05398996164867321</v>
+        <v>-0.05181318832379003</v>
       </c>
       <c r="C54">
-        <v>-0.008467818606418789</v>
+        <v>0.02246872886114498</v>
       </c>
       <c r="D54">
-        <v>-0.01843874402669805</v>
+        <v>0.004706675939270254</v>
       </c>
       <c r="E54">
-        <v>-0.04310848322643539</v>
+        <v>-0.01257655358721979</v>
       </c>
       <c r="F54">
-        <v>-0.01868454439575602</v>
+        <v>-0.02328577574788833</v>
       </c>
       <c r="G54">
-        <v>0.07178927396575135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.06273940672911528</v>
+      </c>
+      <c r="H54">
+        <v>0.1134820576191083</v>
+      </c>
+      <c r="I54">
+        <v>-0.08286920677140709</v>
+      </c>
+      <c r="J54">
+        <v>-0.1160932646066598</v>
+      </c>
+      <c r="K54">
+        <v>0.000543104891827831</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.0960411695460308</v>
+        <v>-0.08740381725394725</v>
       </c>
       <c r="C55">
-        <v>-0.01115492243106821</v>
+        <v>0.0236124961706223</v>
       </c>
       <c r="D55">
-        <v>-0.02296079676425294</v>
+        <v>-0.05076173979207368</v>
       </c>
       <c r="E55">
-        <v>0.01602867186088221</v>
+        <v>0.03274299370528513</v>
       </c>
       <c r="F55">
-        <v>-0.1796269816699059</v>
+        <v>0.008274934645685716</v>
       </c>
       <c r="G55">
-        <v>0.008457025850423901</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01429143658142145</v>
+      </c>
+      <c r="H55">
+        <v>-0.02459577273887633</v>
+      </c>
+      <c r="I55">
+        <v>-0.1561436435927411</v>
+      </c>
+      <c r="J55">
+        <v>-0.003909510310990283</v>
+      </c>
+      <c r="K55">
+        <v>0.06379660240744341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1634761999639106</v>
+        <v>-0.1599277333430887</v>
       </c>
       <c r="C56">
-        <v>0.002863079462153843</v>
+        <v>0.03889065608402735</v>
       </c>
       <c r="D56">
-        <v>-0.00635192142975268</v>
+        <v>-0.01710595248356233</v>
       </c>
       <c r="E56">
-        <v>0.07537053487989119</v>
+        <v>0.04254191409824838</v>
       </c>
       <c r="F56">
-        <v>-0.2396280279947538</v>
+        <v>-0.001568477785250579</v>
       </c>
       <c r="G56">
-        <v>-0.0378065738456299</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.03930588277959762</v>
+      </c>
+      <c r="H56">
+        <v>-0.07745618649621659</v>
+      </c>
+      <c r="I56">
+        <v>-0.1763535742558571</v>
+      </c>
+      <c r="J56">
+        <v>0.02436094833070947</v>
+      </c>
+      <c r="K56">
+        <v>0.1441975145357662</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.01990597369900105</v>
+        <v>-0.04017944547957449</v>
       </c>
       <c r="C58">
-        <v>-0.07318848654304828</v>
+        <v>0.02662140796755832</v>
       </c>
       <c r="D58">
-        <v>0.0286597554877963</v>
+        <v>-0.01000861379360756</v>
       </c>
       <c r="E58">
-        <v>-0.2581229104375186</v>
+        <v>-0.05573881727428455</v>
       </c>
       <c r="F58">
-        <v>0.337262769637511</v>
+        <v>-0.06065070202087702</v>
       </c>
       <c r="G58">
-        <v>0.09032294857613289</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1159591351063337</v>
+      </c>
+      <c r="H58">
+        <v>-0.01420589205502168</v>
+      </c>
+      <c r="I58">
+        <v>-0.01701257224087161</v>
+      </c>
+      <c r="J58">
+        <v>-0.09370213576794743</v>
+      </c>
+      <c r="K58">
+        <v>-0.2342298803630381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1523736268775892</v>
+        <v>-0.1750323490668281</v>
       </c>
       <c r="C59">
-        <v>0.3852858711647337</v>
+        <v>-0.3001808312748745</v>
       </c>
       <c r="D59">
-        <v>-0.07160387029060722</v>
+        <v>-0.03341874130535793</v>
       </c>
       <c r="E59">
-        <v>0.06226761352100893</v>
+        <v>0.06165952834938569</v>
       </c>
       <c r="F59">
-        <v>-0.0149694809163429</v>
+        <v>0.01700623008638557</v>
       </c>
       <c r="G59">
-        <v>0.04806410674300394</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02301641363630719</v>
+      </c>
+      <c r="H59">
+        <v>0.05624407539308353</v>
+      </c>
+      <c r="I59">
+        <v>-0.01409607916434646</v>
+      </c>
+      <c r="J59">
+        <v>0.05517286034616656</v>
+      </c>
+      <c r="K59">
+        <v>0.03765240254789953</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2672533660303802</v>
+        <v>-0.274944246294514</v>
       </c>
       <c r="C60">
-        <v>-0.06883333730862866</v>
+        <v>0.1451364008755686</v>
       </c>
       <c r="D60">
-        <v>-0.07305303513350238</v>
+        <v>0.04743794226107536</v>
       </c>
       <c r="E60">
-        <v>0.07847089959093072</v>
+        <v>0.1336353747865736</v>
       </c>
       <c r="F60">
-        <v>0.07922710253933371</v>
+        <v>-0.03040562965604387</v>
       </c>
       <c r="G60">
-        <v>-0.1758659985061623</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04773367582328061</v>
+      </c>
+      <c r="H60">
+        <v>-0.213039226674404</v>
+      </c>
+      <c r="I60">
+        <v>0.2789462956661711</v>
+      </c>
+      <c r="J60">
+        <v>0.04621162788108874</v>
+      </c>
+      <c r="K60">
+        <v>-0.03158414720971841</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.09582588249390905</v>
+        <v>-0.1117285191995177</v>
       </c>
       <c r="C61">
-        <v>-0.01971665573443584</v>
+        <v>0.05397455848159461</v>
       </c>
       <c r="D61">
-        <v>0.0002183925647898363</v>
+        <v>-0.03128002306496395</v>
       </c>
       <c r="E61">
-        <v>-0.01989407863573727</v>
+        <v>0.06131110426816503</v>
       </c>
       <c r="F61">
-        <v>-0.02052516344408054</v>
+        <v>0.03689342849900606</v>
       </c>
       <c r="G61">
-        <v>0.06359352283838436</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.1116305807896294</v>
+      </c>
+      <c r="H61">
+        <v>0.09589476426988132</v>
+      </c>
+      <c r="I61">
+        <v>-0.0338580136578234</v>
+      </c>
+      <c r="J61">
+        <v>0.1149020361345815</v>
+      </c>
+      <c r="K61">
+        <v>-0.01801760058494995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1477023619266993</v>
+        <v>-0.1551904328289114</v>
       </c>
       <c r="C62">
-        <v>-0.01492657692166694</v>
+        <v>0.03800303871475988</v>
       </c>
       <c r="D62">
-        <v>0.02428794882516363</v>
+        <v>-0.02598023790118811</v>
       </c>
       <c r="E62">
-        <v>0.1302538040516311</v>
+        <v>0.03284773774473972</v>
       </c>
       <c r="F62">
-        <v>-0.1959751639383011</v>
+        <v>0.0134306621704914</v>
       </c>
       <c r="G62">
-        <v>0.002719371635734768</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.02671892618531842</v>
+      </c>
+      <c r="H62">
+        <v>-0.09765529832855066</v>
+      </c>
+      <c r="I62">
+        <v>-0.1764730441839262</v>
+      </c>
+      <c r="J62">
+        <v>-0.02447992379322851</v>
+      </c>
+      <c r="K62">
+        <v>0.08872098007033896</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.0431801138606043</v>
+        <v>-0.03851473579325507</v>
       </c>
       <c r="C63">
-        <v>-0.01838105959905403</v>
+        <v>-0.001629558571961128</v>
       </c>
       <c r="D63">
-        <v>0.01113890933874003</v>
+        <v>-0.009336727465850561</v>
       </c>
       <c r="E63">
-        <v>-0.01203519038089498</v>
+        <v>-0.02455619433908601</v>
       </c>
       <c r="F63">
-        <v>-0.01449752537139756</v>
+        <v>0.01790978644405396</v>
       </c>
       <c r="G63">
-        <v>0.04126627358133039</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.02816093877621812</v>
+      </c>
+      <c r="H63">
+        <v>0.05342452590534631</v>
+      </c>
+      <c r="I63">
+        <v>-0.02751982336693519</v>
+      </c>
+      <c r="J63">
+        <v>-0.008712908455426504</v>
+      </c>
+      <c r="K63">
+        <v>0.03374262737323006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1092050024020705</v>
+        <v>-0.09946530110486107</v>
       </c>
       <c r="C64">
-        <v>-0.01309967168526924</v>
+        <v>0.02267762552175605</v>
       </c>
       <c r="D64">
-        <v>-0.03535606489405169</v>
+        <v>0.006640651334003938</v>
       </c>
       <c r="E64">
-        <v>-0.04397806450227447</v>
+        <v>0.03603269953285647</v>
       </c>
       <c r="F64">
-        <v>0.021944479649588</v>
+        <v>-0.03323618328083333</v>
       </c>
       <c r="G64">
-        <v>0.04931351099028219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05539149926024071</v>
+      </c>
+      <c r="H64">
+        <v>0.04675077566004191</v>
+      </c>
+      <c r="I64">
+        <v>0.06263124645606029</v>
+      </c>
+      <c r="J64">
+        <v>0.00216867093596056</v>
+      </c>
+      <c r="K64">
+        <v>0.01503140284688022</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1156071402374145</v>
+        <v>-0.1163300363381177</v>
       </c>
       <c r="C65">
-        <v>-0.03309948854711286</v>
+        <v>0.006892872381027112</v>
       </c>
       <c r="D65">
-        <v>-0.01933321133909925</v>
+        <v>0.005553369864189295</v>
       </c>
       <c r="E65">
-        <v>-0.07481355042173621</v>
+        <v>-0.02976799429725143</v>
       </c>
       <c r="F65">
-        <v>0.265335858938835</v>
+        <v>0.01749502011230851</v>
       </c>
       <c r="G65">
-        <v>-0.1842195345406666</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02725696138360515</v>
+      </c>
+      <c r="H65">
+        <v>0.006219125480929108</v>
+      </c>
+      <c r="I65">
+        <v>0.2128571903666616</v>
+      </c>
+      <c r="J65">
+        <v>-0.4603741736639606</v>
+      </c>
+      <c r="K65">
+        <v>0.2319087466688613</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1607157929055794</v>
+        <v>-0.1498828754545052</v>
       </c>
       <c r="C66">
-        <v>-0.04554176761898625</v>
+        <v>0.1038884657243551</v>
       </c>
       <c r="D66">
-        <v>0.01507584542523583</v>
+        <v>-0.03901026810444518</v>
       </c>
       <c r="E66">
-        <v>-0.02455706478978209</v>
+        <v>0.06994105273309197</v>
       </c>
       <c r="F66">
-        <v>-0.007709943758070193</v>
+        <v>0.08906818694124173</v>
       </c>
       <c r="G66">
-        <v>0.2848617419124244</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.1191628019859346</v>
+      </c>
+      <c r="H66">
+        <v>0.07247144675970843</v>
+      </c>
+      <c r="I66">
+        <v>0.03423737398288861</v>
+      </c>
+      <c r="J66">
+        <v>0.2418057750185609</v>
+      </c>
+      <c r="K66">
+        <v>0.01175171019450405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.1088423388695982</v>
+        <v>-0.079402826404515</v>
       </c>
       <c r="C67">
-        <v>-0.03757876848995056</v>
+        <v>0.04880923873148371</v>
       </c>
       <c r="D67">
-        <v>-0.02328245878798162</v>
+        <v>-0.07663735968121241</v>
       </c>
       <c r="E67">
-        <v>0.02076063414251055</v>
+        <v>0.02346961977595571</v>
       </c>
       <c r="F67">
-        <v>-0.03107957389725138</v>
+        <v>-0.01997974801961053</v>
       </c>
       <c r="G67">
-        <v>0.04928168864985022</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.06043034654064643</v>
+      </c>
+      <c r="H67">
+        <v>-0.01762734163712215</v>
+      </c>
+      <c r="I67">
+        <v>0.004395771070822705</v>
+      </c>
+      <c r="J67">
+        <v>0.03293198147876986</v>
+      </c>
+      <c r="K67">
+        <v>0.03726065130143707</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.03905416224072293</v>
+        <v>-0.08416568642371595</v>
       </c>
       <c r="C68">
-        <v>0.2921440184442755</v>
+        <v>-0.2846622804527202</v>
       </c>
       <c r="D68">
-        <v>-0.0260319616118397</v>
+        <v>-0.008592694524602597</v>
       </c>
       <c r="E68">
-        <v>0.009448274191884898</v>
+        <v>0.01038307599982299</v>
       </c>
       <c r="F68">
-        <v>0.007277267602279266</v>
+        <v>0.02469501251064</v>
       </c>
       <c r="G68">
-        <v>-0.02273555032902742</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03830208405583636</v>
+      </c>
+      <c r="H68">
+        <v>0.03240224093443805</v>
+      </c>
+      <c r="I68">
+        <v>0.008863200810286756</v>
+      </c>
+      <c r="J68">
+        <v>-0.005571590105886773</v>
+      </c>
+      <c r="K68">
+        <v>-0.0001260733250282873</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.04858259308382763</v>
+        <v>-0.03791005908083658</v>
       </c>
       <c r="C69">
-        <v>-0.01211820337417898</v>
+        <v>0.002768995376307456</v>
       </c>
       <c r="D69">
-        <v>0.004774840186579387</v>
+        <v>-0.02585685496274944</v>
       </c>
       <c r="E69">
-        <v>0.0007121138570015805</v>
+        <v>0.007784453199356956</v>
       </c>
       <c r="F69">
-        <v>-0.0008945184637095921</v>
+        <v>-0.005689605796639938</v>
       </c>
       <c r="G69">
-        <v>0.01708043499049547</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01849608694893161</v>
+      </c>
+      <c r="H69">
+        <v>-0.003186363877284064</v>
+      </c>
+      <c r="I69">
+        <v>-0.02142975653267441</v>
+      </c>
+      <c r="J69">
+        <v>-0.01570448505876897</v>
+      </c>
+      <c r="K69">
+        <v>0.03258533707105042</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.07599068986223582</v>
+        <v>-0.04554325144243835</v>
       </c>
       <c r="C70">
-        <v>-0.007781628433437936</v>
+        <v>0.0002190583488517971</v>
       </c>
       <c r="D70">
-        <v>-0.03057664369605883</v>
+        <v>-0.03179680412408298</v>
       </c>
       <c r="E70">
-        <v>0.0261485590725953</v>
+        <v>0.04660867111530959</v>
       </c>
       <c r="F70">
-        <v>0.04011255044755684</v>
+        <v>-0.002617924133106816</v>
       </c>
       <c r="G70">
-        <v>-0.01372396314043976</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.01157947457921629</v>
+      </c>
+      <c r="H70">
+        <v>0.01386267406011403</v>
+      </c>
+      <c r="I70">
+        <v>-0.003755332878638099</v>
+      </c>
+      <c r="J70">
+        <v>-0.1647884034593277</v>
+      </c>
+      <c r="K70">
+        <v>-0.01955738242761776</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.04970561681017947</v>
+        <v>-0.09836498641685791</v>
       </c>
       <c r="C71">
-        <v>0.2975764979056018</v>
+        <v>-0.2954902896692183</v>
       </c>
       <c r="D71">
-        <v>-0.04580235778660777</v>
+        <v>-0.01094326570918327</v>
       </c>
       <c r="E71">
-        <v>0.006187164587124712</v>
+        <v>0.02998147365865378</v>
       </c>
       <c r="F71">
-        <v>0.01283624944219494</v>
+        <v>0.0009799348564276263</v>
       </c>
       <c r="G71">
-        <v>0.006567063392172974</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.04666792585381513</v>
+      </c>
+      <c r="H71">
+        <v>0.02831304147744643</v>
+      </c>
+      <c r="I71">
+        <v>0.02917920694299877</v>
+      </c>
+      <c r="J71">
+        <v>0.02490537442638845</v>
+      </c>
+      <c r="K71">
+        <v>0.02134425172540397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1424990276910642</v>
+        <v>-0.1450377576957174</v>
       </c>
       <c r="C72">
-        <v>0.03984997592187908</v>
+        <v>-0.009494980192199215</v>
       </c>
       <c r="D72">
-        <v>0.2339820920139841</v>
+        <v>-0.009209054569177956</v>
       </c>
       <c r="E72">
-        <v>0.01355699770045905</v>
+        <v>-0.07665281845305648</v>
       </c>
       <c r="F72">
-        <v>0.05461069805397275</v>
+        <v>0.06326075338621148</v>
       </c>
       <c r="G72">
-        <v>0.06698107942895791</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.008954918693902638</v>
+      </c>
+      <c r="H72">
+        <v>-0.02552992890369053</v>
+      </c>
+      <c r="I72">
+        <v>-0.008832523704946544</v>
+      </c>
+      <c r="J72">
+        <v>-0.04802309250102484</v>
+      </c>
+      <c r="K72">
+        <v>0.1310154553852631</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2828247578709082</v>
+        <v>-0.2436011281932861</v>
       </c>
       <c r="C73">
-        <v>-0.1569867881561143</v>
+        <v>0.1033679844193592</v>
       </c>
       <c r="D73">
-        <v>-0.06324542999353849</v>
+        <v>-0.02829282139434976</v>
       </c>
       <c r="E73">
-        <v>0.1440216979289927</v>
+        <v>0.1642581782496166</v>
       </c>
       <c r="F73">
-        <v>0.2928926544763125</v>
+        <v>-0.01697355447252406</v>
       </c>
       <c r="G73">
-        <v>-0.2898487908227234</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3024007193544252</v>
+      </c>
+      <c r="H73">
+        <v>-0.2600580700651982</v>
+      </c>
+      <c r="I73">
+        <v>0.3035896519468171</v>
+      </c>
+      <c r="J73">
+        <v>0.1174907083383709</v>
+      </c>
+      <c r="K73">
+        <v>-0.08947158734094487</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.1017547937292566</v>
+        <v>-0.1131112575259074</v>
       </c>
       <c r="C74">
-        <v>-0.03186314107175528</v>
+        <v>0.04135934999628373</v>
       </c>
       <c r="D74">
-        <v>-0.006612244094957023</v>
+        <v>-0.02195239181148729</v>
       </c>
       <c r="E74">
-        <v>0.03373933886715581</v>
+        <v>0.008306090259530292</v>
       </c>
       <c r="F74">
-        <v>-0.1160443340858004</v>
+        <v>-0.0005008158155265606</v>
       </c>
       <c r="G74">
-        <v>-0.02741797891800716</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.04931611469625809</v>
+      </c>
+      <c r="H74">
+        <v>-0.09308978901735465</v>
+      </c>
+      <c r="I74">
+        <v>-0.1191447390236429</v>
+      </c>
+      <c r="J74">
+        <v>0.01652310650254393</v>
+      </c>
+      <c r="K74">
+        <v>0.09861356383710761</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.09398752665148469</v>
+        <v>-0.1114357786885381</v>
       </c>
       <c r="C75">
-        <v>-0.0198913470702319</v>
+        <v>0.04100166838579585</v>
       </c>
       <c r="D75">
-        <v>0.02352331967156184</v>
+        <v>-0.007809529581248239</v>
       </c>
       <c r="E75">
-        <v>0.04346990698384053</v>
+        <v>-0.006947153065040782</v>
       </c>
       <c r="F75">
-        <v>-0.1227477567189781</v>
+        <v>0.01167746087469941</v>
       </c>
       <c r="G75">
-        <v>-0.04491500056339271</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.006777337597180745</v>
+      </c>
+      <c r="H75">
+        <v>-0.0468942013226772</v>
+      </c>
+      <c r="I75">
+        <v>-0.1459334999766749</v>
+      </c>
+      <c r="J75">
+        <v>-0.003760364128272619</v>
+      </c>
+      <c r="K75">
+        <v>0.0568981201040996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1404871999480855</v>
+        <v>-0.05457488096670135</v>
       </c>
       <c r="C76">
-        <v>-0.02775291591186932</v>
+        <v>0.01292379477484507</v>
       </c>
       <c r="D76">
-        <v>-0.016820604956105</v>
+        <v>-0.02886938085211746</v>
       </c>
       <c r="E76">
-        <v>0.01552238953920181</v>
+        <v>0.02007604574628641</v>
       </c>
       <c r="F76">
-        <v>-0.269515394694974</v>
+        <v>-0.02274103791188938</v>
       </c>
       <c r="G76">
-        <v>-0.07638264273684657</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04302103226127728</v>
+      </c>
+      <c r="H76">
+        <v>-0.04627212894395927</v>
+      </c>
+      <c r="I76">
+        <v>-0.1134668249199728</v>
+      </c>
+      <c r="J76">
+        <v>0.005287725653374108</v>
+      </c>
+      <c r="K76">
+        <v>0.09575111102356609</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08316798654175843</v>
+        <v>-0.07475498971989557</v>
       </c>
       <c r="C77">
-        <v>0.002186183266906873</v>
+        <v>0.07515779743386174</v>
       </c>
       <c r="D77">
-        <v>-0.04012148568312695</v>
+        <v>0.00784885505033645</v>
       </c>
       <c r="E77">
-        <v>-0.1192692634055714</v>
+        <v>0.02995155137371922</v>
       </c>
       <c r="F77">
-        <v>0.2382496949403003</v>
+        <v>-0.03605779955369962</v>
       </c>
       <c r="G77">
-        <v>0.1457634305765692</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.09635635768613919</v>
+      </c>
+      <c r="H77">
+        <v>0.2443223245708445</v>
+      </c>
+      <c r="I77">
+        <v>0.3133644101357643</v>
+      </c>
+      <c r="J77">
+        <v>-0.1252744933706876</v>
+      </c>
+      <c r="K77">
+        <v>0.1138783385595598</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.2178334103422462</v>
+        <v>-0.1526668789045593</v>
       </c>
       <c r="C78">
-        <v>-0.06373480002204594</v>
+        <v>0.07770957013517309</v>
       </c>
       <c r="D78">
-        <v>-0.06550011822163919</v>
+        <v>-0.09787190110130661</v>
       </c>
       <c r="E78">
-        <v>-0.202535337810381</v>
+        <v>-0.1957395432311203</v>
       </c>
       <c r="F78">
-        <v>0.04177424895732743</v>
+        <v>-0.1671938421628718</v>
       </c>
       <c r="G78">
-        <v>0.1508893913292843</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.645854910177969</v>
+      </c>
+      <c r="H78">
+        <v>0.5782456152434464</v>
+      </c>
+      <c r="I78">
+        <v>-0.1859071508578565</v>
+      </c>
+      <c r="J78">
+        <v>0.07377074053499777</v>
+      </c>
+      <c r="K78">
+        <v>-0.05798321290501457</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1387210343381013</v>
+        <v>-0.1360950263108683</v>
       </c>
       <c r="C79">
-        <v>-0.008145938795731366</v>
+        <v>0.04128144448307578</v>
       </c>
       <c r="D79">
-        <v>-7.818485992950205e-05</v>
+        <v>0.007630007691637717</v>
       </c>
       <c r="E79">
-        <v>0.03012241708325416</v>
+        <v>0.01381427480963736</v>
       </c>
       <c r="F79">
-        <v>-0.1484973646588118</v>
+        <v>0.003768600404331331</v>
       </c>
       <c r="G79">
-        <v>0.009087811075574102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.024944988962087</v>
+      </c>
+      <c r="H79">
+        <v>-0.05282417929141101</v>
+      </c>
+      <c r="I79">
+        <v>-0.1191962721064957</v>
+      </c>
+      <c r="J79">
+        <v>0.003541019135414547</v>
+      </c>
+      <c r="K79">
+        <v>0.1304647408503152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03404460617084886</v>
+        <v>-0.06901247710906819</v>
       </c>
       <c r="C80">
-        <v>-0.01030966421855748</v>
+        <v>0.04209948886221428</v>
       </c>
       <c r="D80">
-        <v>-0.01797584084994495</v>
+        <v>-0.04329149185132343</v>
       </c>
       <c r="E80">
-        <v>0.02987559917333492</v>
+        <v>0.04355537567364628</v>
       </c>
       <c r="F80">
-        <v>0.03267184673486932</v>
+        <v>0.02801203827914398</v>
       </c>
       <c r="G80">
-        <v>0.06904771849356475</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.03538690118427018</v>
+      </c>
+      <c r="H80">
+        <v>0.06793553105535403</v>
+      </c>
+      <c r="I80">
+        <v>-0.1241525583711338</v>
+      </c>
+      <c r="J80">
+        <v>-0.07389531714338295</v>
+      </c>
+      <c r="K80">
+        <v>-0.2264135475307911</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1136703111353121</v>
+        <v>-0.1327503258153503</v>
       </c>
       <c r="C81">
-        <v>-0.00194580989459321</v>
+        <v>0.04231385023001673</v>
       </c>
       <c r="D81">
-        <v>-0.01289521861979762</v>
+        <v>-0.006247021641132989</v>
       </c>
       <c r="E81">
-        <v>0.02190042806979335</v>
+        <v>0.01013197827268711</v>
       </c>
       <c r="F81">
-        <v>-0.1312304938612302</v>
+        <v>-0.00646897705086723</v>
       </c>
       <c r="G81">
-        <v>-0.02722416332267744</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.0438420922323602</v>
+      </c>
+      <c r="H81">
+        <v>-0.03562517919903809</v>
+      </c>
+      <c r="I81">
+        <v>-0.1478726537340544</v>
+      </c>
+      <c r="J81">
+        <v>0.02861531971462194</v>
+      </c>
+      <c r="K81">
+        <v>0.08966976780940442</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1125459785115505</v>
+        <v>-0.1462394075332721</v>
       </c>
       <c r="C82">
-        <v>-0.02435510892462762</v>
+        <v>0.03869478544075609</v>
       </c>
       <c r="D82">
-        <v>-0.04666911484239103</v>
+        <v>-0.0173086336324435</v>
       </c>
       <c r="E82">
-        <v>0.07286507165330476</v>
+        <v>0.05984960678888453</v>
       </c>
       <c r="F82">
-        <v>-0.2505203116043705</v>
+        <v>0.009256814800390771</v>
       </c>
       <c r="G82">
-        <v>0.02069995368075187</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.04999741833383664</v>
+      </c>
+      <c r="H82">
+        <v>-0.1276200755998161</v>
+      </c>
+      <c r="I82">
+        <v>-0.220042288874133</v>
+      </c>
+      <c r="J82">
+        <v>0.05318053616563802</v>
+      </c>
+      <c r="K82">
+        <v>0.0481777081469258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.1076433169224931</v>
+        <v>-0.09861870335028391</v>
       </c>
       <c r="C83">
-        <v>-0.05248032058404046</v>
+        <v>0.08661477845374571</v>
       </c>
       <c r="D83">
-        <v>-0.05719835121187865</v>
+        <v>0.01478351548223539</v>
       </c>
       <c r="E83">
-        <v>0.01616136693206105</v>
+        <v>-0.004097931070794069</v>
       </c>
       <c r="F83">
-        <v>0.0659789851293104</v>
+        <v>-0.01163849272876817</v>
       </c>
       <c r="G83">
-        <v>0.07196621762116902</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.06368847822010305</v>
+      </c>
+      <c r="H83">
+        <v>0.06678229597691313</v>
+      </c>
+      <c r="I83">
+        <v>-0.04755683912261367</v>
+      </c>
+      <c r="J83">
+        <v>-0.1950526009681559</v>
+      </c>
+      <c r="K83">
+        <v>-0.1070904151650029</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.05140623212127296</v>
+        <v>-0.06069254678626258</v>
       </c>
       <c r="C84">
-        <v>-0.01602047714048187</v>
+        <v>-0.0003236666212411388</v>
       </c>
       <c r="D84">
-        <v>0.05306944737457565</v>
+        <v>0.02552335930668109</v>
       </c>
       <c r="E84">
-        <v>-0.02066485156863666</v>
+        <v>0.0254860568873563</v>
       </c>
       <c r="F84">
-        <v>-0.0508159134870217</v>
+        <v>0.02190310824749215</v>
       </c>
       <c r="G84">
-        <v>-0.03987963321440218</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.0006085315257767619</v>
+      </c>
+      <c r="H84">
+        <v>-0.008346873359180109</v>
+      </c>
+      <c r="I84">
+        <v>0.08309286167537346</v>
+      </c>
+      <c r="J84">
+        <v>0.2234956061051712</v>
+      </c>
+      <c r="K84">
+        <v>-0.4423224794999342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1015111706195858</v>
+        <v>-0.1194812173200324</v>
       </c>
       <c r="C85">
-        <v>-0.02233669563590245</v>
+        <v>0.0323452915923305</v>
       </c>
       <c r="D85">
-        <v>-0.02553054879647992</v>
+        <v>-0.004259317424481959</v>
       </c>
       <c r="E85">
-        <v>0.03347961541129323</v>
+        <v>0.0361398884038698</v>
       </c>
       <c r="F85">
-        <v>-0.1913784873168832</v>
+        <v>-0.01197532968771558</v>
       </c>
       <c r="G85">
-        <v>0.006056751461549005</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.03071517281095014</v>
+      </c>
+      <c r="H85">
+        <v>-0.04178692546440723</v>
+      </c>
+      <c r="I85">
+        <v>-0.1609402469303197</v>
+      </c>
+      <c r="J85">
+        <v>0.005495626044760347</v>
+      </c>
+      <c r="K85">
+        <v>0.1025640016054888</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.06820972852944088</v>
+        <v>-0.1324848850962206</v>
       </c>
       <c r="C86">
-        <v>-0.0172731681778733</v>
+        <v>0.029513370995954</v>
       </c>
       <c r="D86">
-        <v>-0.06076292934658856</v>
+        <v>0.9341785988310369</v>
       </c>
       <c r="E86">
-        <v>-0.06840722820002908</v>
+        <v>-0.1922053139975176</v>
       </c>
       <c r="F86">
-        <v>0.02316198106644021</v>
+        <v>-0.01408845113773494</v>
       </c>
       <c r="G86">
-        <v>0.09608082358165455</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.04598291591269476</v>
+      </c>
+      <c r="H86">
+        <v>0.05017249107422479</v>
+      </c>
+      <c r="I86">
+        <v>-0.06102543390304562</v>
+      </c>
+      <c r="J86">
+        <v>0.02029048696272719</v>
+      </c>
+      <c r="K86">
+        <v>-0.08822299153792575</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1018002805610046</v>
+        <v>-0.1164649843000464</v>
       </c>
       <c r="C87">
-        <v>-0.06263270411919993</v>
+        <v>0.1100991067042598</v>
       </c>
       <c r="D87">
-        <v>-0.01481861558859454</v>
+        <v>-0.006647372222663783</v>
       </c>
       <c r="E87">
-        <v>-0.07436239765512419</v>
+        <v>0.02460378843156605</v>
       </c>
       <c r="F87">
-        <v>0.04124877072655202</v>
+        <v>-0.02234425276933177</v>
       </c>
       <c r="G87">
-        <v>0.1122105919649129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08360286713411549</v>
+      </c>
+      <c r="H87">
+        <v>0.1265854644332462</v>
+      </c>
+      <c r="I87">
+        <v>0.1199843561255895</v>
+      </c>
+      <c r="J87">
+        <v>-0.1672636638379901</v>
+      </c>
+      <c r="K87">
+        <v>0.01873422754270615</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.06972492617583299</v>
+        <v>-0.05746351247075265</v>
       </c>
       <c r="C88">
-        <v>-0.04014336331293574</v>
+        <v>0.03474177260219812</v>
       </c>
       <c r="D88">
-        <v>-0.01910276030083317</v>
+        <v>-0.01322363593771346</v>
       </c>
       <c r="E88">
-        <v>-0.01177602469407499</v>
+        <v>0.03929476540383273</v>
       </c>
       <c r="F88">
-        <v>-0.01198442037745479</v>
+        <v>0.02731742034609871</v>
       </c>
       <c r="G88">
-        <v>0.05579705269646418</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.01834158856071718</v>
+      </c>
+      <c r="H88">
+        <v>0.01612397338542298</v>
+      </c>
+      <c r="I88">
+        <v>-0.03802744365671849</v>
+      </c>
+      <c r="J88">
+        <v>0.007532596043355259</v>
+      </c>
+      <c r="K88">
+        <v>0.01966912924671225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.09558121505613731</v>
+        <v>-0.1505088065789028</v>
       </c>
       <c r="C89">
-        <v>0.3784270028822532</v>
+        <v>-0.3741686675378947</v>
       </c>
       <c r="D89">
-        <v>-0.1023216379904982</v>
+        <v>-0.01404477216610906</v>
       </c>
       <c r="E89">
-        <v>-0.01642121141477072</v>
+        <v>0.02457698360351538</v>
       </c>
       <c r="F89">
-        <v>0.02402842203293258</v>
+        <v>-0.06964001722300005</v>
       </c>
       <c r="G89">
-        <v>-0.003248155591675612</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0005174704172194039</v>
+      </c>
+      <c r="H89">
+        <v>0.04634799314887059</v>
+      </c>
+      <c r="I89">
+        <v>0.01848533289415847</v>
+      </c>
+      <c r="J89">
+        <v>0.001910228043307036</v>
+      </c>
+      <c r="K89">
+        <v>-0.07475797844057895</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.07454384728056304</v>
+        <v>-0.1147087988326741</v>
       </c>
       <c r="C90">
-        <v>0.2913856658071823</v>
+        <v>-0.2846312729616504</v>
       </c>
       <c r="D90">
-        <v>-0.04249782750382965</v>
+        <v>-0.0007772744329785096</v>
       </c>
       <c r="E90">
-        <v>-0.04952580518704587</v>
+        <v>0.03134550148157173</v>
       </c>
       <c r="F90">
-        <v>0.04692983795738701</v>
+        <v>0.002396721255097346</v>
       </c>
       <c r="G90">
-        <v>0.03142034092559074</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04826525872101511</v>
+      </c>
+      <c r="H90">
+        <v>0.04056164256325091</v>
+      </c>
+      <c r="I90">
+        <v>0.04501492027047038</v>
+      </c>
+      <c r="J90">
+        <v>0.01744362622163699</v>
+      </c>
+      <c r="K90">
+        <v>-0.0353481265652612</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.08270705245353351</v>
+        <v>-0.0837375324836817</v>
       </c>
       <c r="C91">
-        <v>-0.02009349069233889</v>
+        <v>0.03564850413793026</v>
       </c>
       <c r="D91">
-        <v>-0.009895746515764829</v>
+        <v>0.01481801399677454</v>
       </c>
       <c r="E91">
-        <v>0.02478973970742405</v>
+        <v>0.01490007692981373</v>
       </c>
       <c r="F91">
-        <v>-0.09372409795427891</v>
+        <v>-0.01121756851967738</v>
       </c>
       <c r="G91">
-        <v>-0.05606402972894101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.01237009146532982</v>
+      </c>
+      <c r="H91">
+        <v>-0.05206051230220394</v>
+      </c>
+      <c r="I91">
+        <v>-0.09997581764530626</v>
+      </c>
+      <c r="J91">
+        <v>-0.004755952541511383</v>
+      </c>
+      <c r="K91">
+        <v>0.05882184017975879</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.06805900529634287</v>
+        <v>-0.1241909932976558</v>
       </c>
       <c r="C92">
-        <v>0.3453404304908845</v>
+        <v>-0.3386188903681944</v>
       </c>
       <c r="D92">
-        <v>-0.07099555085306558</v>
+        <v>-0.0113077036461386</v>
       </c>
       <c r="E92">
-        <v>-0.02908612849294479</v>
+        <v>0.005775638923527223</v>
       </c>
       <c r="F92">
-        <v>0.05276890405863356</v>
+        <v>-0.03780849288414918</v>
       </c>
       <c r="G92">
-        <v>-0.02619880450951648</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02163052183374335</v>
+      </c>
+      <c r="H92">
+        <v>0.0742475560986029</v>
+      </c>
+      <c r="I92">
+        <v>-0.01969027826500168</v>
+      </c>
+      <c r="J92">
+        <v>0.03181150293454985</v>
+      </c>
+      <c r="K92">
+        <v>-0.01973716940334084</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.08530727489183099</v>
+        <v>-0.1195512981398212</v>
       </c>
       <c r="C93">
-        <v>0.3006436167307093</v>
+        <v>-0.3160864672645172</v>
       </c>
       <c r="D93">
-        <v>-0.04264685106974098</v>
+        <v>0.01343585188432033</v>
       </c>
       <c r="E93">
-        <v>-0.02230132146201755</v>
+        <v>0.05155295654952086</v>
       </c>
       <c r="F93">
-        <v>0.04170972701977013</v>
+        <v>0.01163262980630297</v>
       </c>
       <c r="G93">
-        <v>-0.02721101707491898</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04134609022986386</v>
+      </c>
+      <c r="H93">
+        <v>0.005928925700745434</v>
+      </c>
+      <c r="I93">
+        <v>0.03538457362747501</v>
+      </c>
+      <c r="J93">
+        <v>-4.398680543573147e-05</v>
+      </c>
+      <c r="K93">
+        <v>-0.0267570510250095</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.09500230036632819</v>
+        <v>-0.1271230870029366</v>
       </c>
       <c r="C94">
-        <v>-0.04638839958831108</v>
+        <v>0.04978202481100392</v>
       </c>
       <c r="D94">
-        <v>0.007248237693701544</v>
+        <v>-0.02836998268351008</v>
       </c>
       <c r="E94">
-        <v>0.01477107002965453</v>
+        <v>0.007760287705929587</v>
       </c>
       <c r="F94">
-        <v>-0.1448101878325751</v>
+        <v>-0.01712166691772507</v>
       </c>
       <c r="G94">
-        <v>-0.05560788958322768</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.009044248080630937</v>
+      </c>
+      <c r="H94">
+        <v>-0.08637415269445343</v>
+      </c>
+      <c r="I94">
+        <v>-0.1169281994816934</v>
+      </c>
+      <c r="J94">
+        <v>0.03945492006857878</v>
+      </c>
+      <c r="K94">
+        <v>0.0534636139135862</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1289020583701968</v>
+        <v>-0.1190865210403874</v>
       </c>
       <c r="C95">
-        <v>-0.08153311400225256</v>
+        <v>0.05084926798273253</v>
       </c>
       <c r="D95">
-        <v>-0.05930314665745316</v>
+        <v>-0.01421099959240842</v>
       </c>
       <c r="E95">
-        <v>-0.06566818777336622</v>
+        <v>0.02047868550613328</v>
       </c>
       <c r="F95">
-        <v>0.09184515404917451</v>
+        <v>-0.06071041535104558</v>
       </c>
       <c r="G95">
-        <v>0.1224473005601336</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.007647531058790731</v>
+      </c>
+      <c r="H95">
+        <v>0.1214320888380176</v>
+      </c>
+      <c r="I95">
+        <v>0.06711594109733988</v>
+      </c>
+      <c r="J95">
+        <v>-0.02354546043863132</v>
+      </c>
+      <c r="K95">
+        <v>-0.1295951445528611</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.009770727866926296</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.001288428386369066</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0005249853240362168</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.005519384442306457</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.004153018205352637</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>-0.0006082712374215802</v>
+      </c>
+      <c r="H96">
+        <v>0.01767411565730753</v>
+      </c>
+      <c r="I96">
+        <v>0.01336639574861</v>
+      </c>
+      <c r="J96">
+        <v>-0.01342592340875983</v>
+      </c>
+      <c r="K96">
+        <v>0.02040199380194766</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.1933883644498512</v>
+        <v>-0.1842835338017557</v>
       </c>
       <c r="C97">
-        <v>0.1244680009200716</v>
+        <v>-0.01331983642235673</v>
       </c>
       <c r="D97">
-        <v>0.9102968659695942</v>
+        <v>-0.1678734843610633</v>
       </c>
       <c r="E97">
-        <v>-0.02763320613756857</v>
+        <v>-0.7750653019498515</v>
       </c>
       <c r="F97">
-        <v>0.04001564421207863</v>
+        <v>0.5122630731232701</v>
       </c>
       <c r="G97">
-        <v>0.02475287910028403</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03590987164718962</v>
+      </c>
+      <c r="H97">
+        <v>-0.1083569657522167</v>
+      </c>
+      <c r="I97">
+        <v>0.09649804662063965</v>
+      </c>
+      <c r="J97">
+        <v>0.0569530694558469</v>
+      </c>
+      <c r="K97">
+        <v>-0.01576440809630518</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.3186965020011825</v>
+        <v>-0.2664000501639298</v>
       </c>
       <c r="C98">
-        <v>-0.06811999873375973</v>
+        <v>0.03511325169108471</v>
       </c>
       <c r="D98">
-        <v>-0.04702029833476973</v>
+        <v>0.01120227541547947</v>
       </c>
       <c r="E98">
-        <v>0.2514191147705851</v>
+        <v>0.02111257553126888</v>
       </c>
       <c r="F98">
-        <v>0.1712250029473126</v>
+        <v>-0.04362989850425056</v>
       </c>
       <c r="G98">
-        <v>-0.2826828357767507</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.2616739571057841</v>
+      </c>
+      <c r="H98">
+        <v>-0.2620995923757691</v>
+      </c>
+      <c r="I98">
+        <v>-0.1028701777924772</v>
+      </c>
+      <c r="J98">
+        <v>-0.3251438788865677</v>
+      </c>
+      <c r="K98">
+        <v>-0.2747613803397236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.0875444929931975</v>
+        <v>-0.05435139554020364</v>
       </c>
       <c r="C99">
-        <v>-0.02312470839719477</v>
+        <v>0.008091210618255188</v>
       </c>
       <c r="D99">
-        <v>-0.008490927442663705</v>
+        <v>-0.03331122972650961</v>
       </c>
       <c r="E99">
-        <v>0.01118687853560431</v>
+        <v>0.003020409721940885</v>
       </c>
       <c r="F99">
-        <v>0.01378324348888877</v>
+        <v>-0.02084506038194436</v>
       </c>
       <c r="G99">
-        <v>0.02588957163168183</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.01342895836702819</v>
+      </c>
+      <c r="H99">
+        <v>0.01326866452804457</v>
+      </c>
+      <c r="I99">
+        <v>0.005524494913186514</v>
+      </c>
+      <c r="J99">
+        <v>0.02504485046392173</v>
+      </c>
+      <c r="K99">
+        <v>0.05700244778876653</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.0300499700828445</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04323576703041063</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.1638828139894593</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.01959487343531007</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.04985182306607548</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.1466704172145789</v>
+      </c>
+      <c r="H100">
+        <v>-0.06008788496462674</v>
+      </c>
+      <c r="I100">
+        <v>-0.1487821054550895</v>
+      </c>
+      <c r="J100">
+        <v>-0.2369375069571822</v>
+      </c>
+      <c r="K100">
+        <v>-0.5426753836792877</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05916165112867047</v>
+        <v>-0.03845249846125325</v>
       </c>
       <c r="C101">
-        <v>-0.003717234695337497</v>
+        <v>0.009934316343132164</v>
       </c>
       <c r="D101">
-        <v>-0.03019179779008024</v>
+        <v>-0.000378519562328091</v>
       </c>
       <c r="E101">
-        <v>-0.04298563603516883</v>
+        <v>0.02774177066984211</v>
       </c>
       <c r="F101">
-        <v>-0.03079926012887462</v>
+        <v>-0.00204907497244064</v>
       </c>
       <c r="G101">
-        <v>0.04274109225595125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.08151017177846998</v>
+      </c>
+      <c r="H101">
+        <v>0.03779993784444721</v>
+      </c>
+      <c r="I101">
+        <v>-0.06639374244377903</v>
+      </c>
+      <c r="J101">
+        <v>-0.03757676748504624</v>
+      </c>
+      <c r="K101">
+        <v>0.02905596306904489</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
